--- a/src/main/webapp/cfg/excel/gbltemp.xlsx
+++ b/src/main/webapp/cfg/excel/gbltemp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bouga\Documents\GitHub\QData\src\main\webapp\cfg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CE6C25-932C-4FBB-9AC7-76FEA289C0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DDD34D-BC75-4CE2-AF97-45AFDC55D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,9 +401,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -413,47 +410,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent4" xfId="1" builtinId="41"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF14B6FA"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1073,6 +1038,41 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF14B6FA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1093,25 +1093,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F48BE185-4127-4B9B-832F-76A35BB21827}" name="Tableau1" displayName="Tableau1" ref="B4:Q300" totalsRowShown="0" headerRowDxfId="0" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21" headerRowCellStyle="Accent4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F48BE185-4127-4B9B-832F-76A35BB21827}" name="Tableau1" displayName="Tableau1" ref="B4:Q300" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20" headerRowCellStyle="Accent4">
   <autoFilter ref="B4:Q300" xr:uid="{F48BE185-4127-4B9B-832F-76A35BB21827}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{7EB14CFD-9523-4B36-BEA7-BFC2A2B82F1D}" name="Site" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{7216BAFF-84E7-410C-B403-3D46E04E722A}" name="Service" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{F0136A45-9A95-44BE-B2CE-C11F7B9C9B0E}" name="Nb Tickets" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{4FDB167F-31FE-44AD-88FF-FF9C81A4C674}" name="Tickets Traités" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{5FB3EF3C-8E4F-4469-9D5A-96F5CDA0369F}" name="Tickets Absents" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{74C3DDA5-75E1-4FA0-ADDE-3F64D7762BCC}" name="   Traités      &lt; 1mn" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{55E7CBA0-391D-49AF-B001-7C4ECFED789D}" name="Sans Affectation" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{F8541194-85D5-49AB-9C51-5D4C77E5608E}" name="Nb.Absents /Nb.Tickets%" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{6343A0AF-7462-4923-BB3E-0D918BE92D7B}" name="Traités&lt;1mn/Nb.Tickets%" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{345FEB65-E38B-4E77-9950-AE2A8F87F36B}" name="Sans affect. /Nb.Tickets%" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{197670E2-2620-4D5C-89D9-E41C187736B3}" name="Moyenne attente(mm:ss)" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{470A38DB-0D6E-4F3E-A502-AD3E9EE3CD70}" name="&gt; Cible attente" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{059032EB-5A36-41E8-B304-D5CC02434F70}" name="(%) Cible attente" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{A9D1D6F5-3402-4D7A-8E77-D3B00D202D30}" name="Moyenne traitement (mm:ss)" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{96FADEF2-3D4D-4774-B587-F97046750FCA}" name="&gt; Cible traitement" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{1149A9F2-570B-405B-94BE-569D45E751EE}" name="(%) Cible traitement" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{7EB14CFD-9523-4B36-BEA7-BFC2A2B82F1D}" name="Site" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7216BAFF-84E7-410C-B403-3D46E04E722A}" name="Service" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{F0136A45-9A95-44BE-B2CE-C11F7B9C9B0E}" name="Nb Tickets" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{4FDB167F-31FE-44AD-88FF-FF9C81A4C674}" name="Tickets Traités" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{5FB3EF3C-8E4F-4469-9D5A-96F5CDA0369F}" name="Tickets Absents" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{74C3DDA5-75E1-4FA0-ADDE-3F64D7762BCC}" name="   Traités      &lt; 1mn" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{55E7CBA0-391D-49AF-B001-7C4ECFED789D}" name="Sans Affectation" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{F8541194-85D5-49AB-9C51-5D4C77E5608E}" name="Nb.Absents /Nb.Tickets%" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{6343A0AF-7462-4923-BB3E-0D918BE92D7B}" name="Traités&lt;1mn/Nb.Tickets%" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{345FEB65-E38B-4E77-9950-AE2A8F87F36B}" name="Sans affect. /Nb.Tickets%" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{197670E2-2620-4D5C-89D9-E41C187736B3}" name="Moyenne attente(mm:ss)" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{470A38DB-0D6E-4F3E-A502-AD3E9EE3CD70}" name="&gt; Cible attente" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{059032EB-5A36-41E8-B304-D5CC02434F70}" name="(%) Cible attente" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{A9D1D6F5-3402-4D7A-8E77-D3B00D202D30}" name="Moyenne traitement (mm:ss)" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{96FADEF2-3D4D-4774-B587-F97046750FCA}" name="&gt; Cible traitement" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{1149A9F2-570B-405B-94BE-569D45E751EE}" name="(%) Cible traitement" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1319,8 +1319,8 @@
   <dimension ref="A1:S1002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1348,27 +1348,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="2:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:19" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+    </row>
+    <row r="2" spans="2:19" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1378,52 +1386,52 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:19" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="17" t="s">
         <v>22</v>
       </c>
       <c r="R4" s="4" t="s">
@@ -13150,20 +13158,20 @@
     <mergeCell ref="B1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>#REF!="Totale"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>#REF!="Sous-Totale"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:Q6 B7:O7 Q7 B8:Q300">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$B$5:$B$300="Totale"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:Q6 C7:O7 Q7 C8:Q300">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$C$5:$C$300="Sous-Totale"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/webapp/cfg/excel/gbltemp.xlsx
+++ b/src/main/webapp/cfg/excel/gbltemp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bouga\Documents\GitHub\QData\src\main\webapp\cfg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DDD34D-BC75-4CE2-AF97-45AFDC55D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149B3CFB-B8C6-4F7A-B1AF-5C2F200BA3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Service</t>
-  </si>
-  <si>
-    <t>Moyenne attente(mm:ss)</t>
-  </si>
-  <si>
-    <t>Moyenne traitement (mm:ss)</t>
   </si>
   <si>
     <t>C20</t>
@@ -134,6 +128,12 @@
   </si>
   <si>
     <t>${title}</t>
+  </si>
+  <si>
+    <t>Moyenne attente(seconde)</t>
+  </si>
+  <si>
+    <t>Moyenne traitement (seconde)</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1106,10 @@
     <tableColumn id="8" xr3:uid="{F8541194-85D5-49AB-9C51-5D4C77E5608E}" name="Nb.Absents /Nb.Tickets%" dataDxfId="12"/>
     <tableColumn id="9" xr3:uid="{6343A0AF-7462-4923-BB3E-0D918BE92D7B}" name="Traités&lt;1mn/Nb.Tickets%" dataDxfId="11"/>
     <tableColumn id="11" xr3:uid="{345FEB65-E38B-4E77-9950-AE2A8F87F36B}" name="Sans affect. /Nb.Tickets%" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{197670E2-2620-4D5C-89D9-E41C187736B3}" name="Moyenne attente(mm:ss)" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{197670E2-2620-4D5C-89D9-E41C187736B3}" name="Moyenne attente(seconde)" dataDxfId="9"/>
     <tableColumn id="13" xr3:uid="{470A38DB-0D6E-4F3E-A502-AD3E9EE3CD70}" name="&gt; Cible attente" dataDxfId="8"/>
     <tableColumn id="14" xr3:uid="{059032EB-5A36-41E8-B304-D5CC02434F70}" name="(%) Cible attente" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{A9D1D6F5-3402-4D7A-8E77-D3B00D202D30}" name="Moyenne traitement (mm:ss)" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{A9D1D6F5-3402-4D7A-8E77-D3B00D202D30}" name="Moyenne traitement (seconde)" dataDxfId="6"/>
     <tableColumn id="16" xr3:uid="{96FADEF2-3D4D-4774-B587-F97046750FCA}" name="&gt; Cible traitement" dataDxfId="5"/>
     <tableColumn id="17" xr3:uid="{1149A9F2-570B-405B-94BE-569D45E751EE}" name="(%) Cible traitement" dataDxfId="4"/>
   </tableColumns>
@@ -1320,7 +1320,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1349,7 @@
   <sheetData>
     <row r="1" spans="2:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -1393,57 +1393,57 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="J4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="L4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="N4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="O4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="16" t="s">
+      <c r="S4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="2:19" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="6" spans="2:19" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1491,59 +1491,59 @@
     </row>
     <row r="7" spans="2:19" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="H7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="9" spans="2:19" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
